--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\Saudia\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CBACA-8256-422B-97E1-511EECC5C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774FCCE-ADBF-47B8-83A0-5978E1E5B1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="60">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>Qlindia@123</t>
+  </si>
+  <si>
+    <t>ankur.yadav@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Ankur@123</t>
+  </si>
+  <si>
+    <t>25-Nov-2024</t>
+  </si>
+  <si>
+    <t>29-Nov-2024</t>
   </si>
 </sst>
 </file>
@@ -1897,13 +1909,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840724F8-1455-4D2C-903F-38DA3EB24B1F}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2001,11 +2039,11 @@
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
+      <c r="G2" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>24</v>
@@ -2026,10 +2064,10 @@
         <v>35</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
@@ -2056,44 +2094,124 @@
         <v>46</v>
       </c>
       <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2 S2" xr:uid="{0287DC23-030D-44C1-B7CC-8D5DBCDB9E00}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3 S2:S3" xr:uid="{0287DC23-030D-44C1-B7CC-8D5DBCDB9E00}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 U2" xr:uid="{C03E6A49-8959-472D-84FB-E6E790D1C607}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 U2:U3" xr:uid="{C03E6A49-8959-472D-84FB-E6E790D1C607}">
       <formula1>"Basic,Semi Flex,Flex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 X2" xr:uid="{6F86052F-6557-468F-81F9-82ED99F0DCC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 X2:X3" xr:uid="{6F86052F-6557-468F-81F9-82ED99F0DCC0}">
       <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 R2" xr:uid="{3E94CEE9-4236-4A36-B9C2-1E3D565C2E55}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3 R2:R3" xr:uid="{3E94CEE9-4236-4A36-B9C2-1E3D565C2E55}">
       <formula1>"Guest,Business"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{AEE7F494-4083-4C72-9815-2A51116F56A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{AEE7F494-4083-4C72-9815-2A51116F56A0}">
       <formula1>"Employee,Guest,MultiPassenger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{AF5A0A07-84CD-4C03-B931-1D5D1DD36A05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{AF5A0A07-84CD-4C03-B931-1D5D1DD36A05}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{C837B65C-876E-445D-ACBA-93959ACDC4B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{C837B65C-876E-445D-ACBA-93959ACDC4B6}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{FEED6C9B-0F1E-4265-B3ED-7C5FBF75C44E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{FEED6C9B-0F1E-4265-B3ED-7C5FBF75C44E}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{11219900-BA06-4793-97BF-FF747C390384}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{11219900-BA06-4793-97BF-FF747C390384}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{560AF4FA-E4E1-4FF5-9D97-8A2A32AC928A}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{2BE164A9-68DF-4DEA-92ED-24920AA27FEC}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{67177FE9-4594-40EE-BAED-956973D44285}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{EE2A114F-24D9-49BC-AD27-A5A96F5E41BA}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{EC25AD69-9A75-43F0-81E7-4ACEEB06D18A}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{621E2610-5067-49B8-B3C0-41CF28388A20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\Saudia\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774FCCE-ADBF-47B8-83A0-5978E1E5B1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE47E76-86C0-4720-AD42-BA97DC28525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="102">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -210,10 +212,136 @@
     <t>Ankur@123</t>
   </si>
   <si>
-    <t>25-Nov-2024</t>
-  </si>
-  <si>
-    <t>29-Nov-2024</t>
+    <t>13-Jan-2025</t>
+  </si>
+  <si>
+    <t>15-Jan-2025</t>
+  </si>
+  <si>
+    <t>Anant Kumar</t>
+  </si>
+  <si>
+    <t>Verify One way(Individual) flight booking flow</t>
+  </si>
+  <si>
+    <t>PromoCode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ModifySearch</t>
+  </si>
+  <si>
+    <t>ChangeTrip</t>
+  </si>
+  <si>
+    <t>TripTypeM</t>
+  </si>
+  <si>
+    <t>MarketTypeM</t>
+  </si>
+  <si>
+    <t>OriginCityCodeM</t>
+  </si>
+  <si>
+    <t>OriginLocationM</t>
+  </si>
+  <si>
+    <t>DestinationCityCodeM</t>
+  </si>
+  <si>
+    <t>DestinationLocationM</t>
+  </si>
+  <si>
+    <t>ChangeTripDate</t>
+  </si>
+  <si>
+    <t>DepartureDateM</t>
+  </si>
+  <si>
+    <t>ReturnDateM</t>
+  </si>
+  <si>
+    <t>ChangeTravellers</t>
+  </si>
+  <si>
+    <t>adultM</t>
+  </si>
+  <si>
+    <t>childM</t>
+  </si>
+  <si>
+    <t>infantM</t>
+  </si>
+  <si>
+    <t>ChangeClass</t>
+  </si>
+  <si>
+    <t>ClassM</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SelectExtras</t>
+  </si>
+  <si>
+    <t>ChooseOption</t>
+  </si>
+  <si>
+    <t>Seat,Baggage,FastTrack,MeetAndGreet</t>
+  </si>
+  <si>
+    <t>NoExtras</t>
+  </si>
+  <si>
+    <t>Verify Round Trip(Individual) flight booking flow</t>
+  </si>
+  <si>
+    <t>Verify One way(Individual) flight booking flow with modify</t>
+  </si>
+  <si>
+    <t>24-February-2025</t>
+  </si>
+  <si>
+    <t>27-February-2025</t>
+  </si>
+  <si>
+    <t>17-February-2025</t>
+  </si>
+  <si>
+    <t>20-February-2025</t>
+  </si>
+  <si>
+    <t>18-February-2025</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>UseDifferentCard</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>NameOfCardHolder</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>340000000001098</t>
   </si>
 </sst>
 </file>
@@ -337,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -365,6 +493,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1911,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840724F8-1455-4D2C-903F-38DA3EB24B1F}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,6 +2346,1281 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E3D3A-B9B9-460F-B5D9-9CA28F0C8462}">
+  <dimension ref="A1:AY4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="5">
+        <v>5</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY4">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{11236F0F-E792-47CA-B19B-FA0840D1DCC9}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{6540B086-15ED-4F54-B6BD-9D39BF7CD4B0}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 AC2:AC4" xr:uid="{0403D8AC-451B-4338-8306-312490F70562}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4 AD2:AD4" xr:uid="{D89CFC1C-8035-49C3-86A2-DD89AC465E7D}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{39A28E41-3983-4A8C-9DE5-918C12F5AB86}">
+      <formula1>"Employee,Guest,MultiPassenger"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4 S2:S4" xr:uid="{0F4F7FC5-5D9A-4E2E-AD7D-842A622C694E}">
+      <formula1>"Guest,Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U4 Y2:Y4" xr:uid="{979B5F61-5D66-4B55-9352-5AF5FC0362E2}">
+      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z4 V2:V4" xr:uid="{8A8C377F-A274-43D8-822B-55B4FD3F592A}">
+      <formula1>"Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X4 T2:T4" xr:uid="{C3001AC5-DBFA-4CCC-8E8C-7AB11FEC5BDD}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4 AA2:AB4 AP2:AP4 AL2:AL4 AI2:AI4" xr:uid="{B6C93EA2-90C8-49A5-9BC2-D7330B762333}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ4" xr:uid="{2C1515B6-DDFB-421C-B50E-D810B5801492}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO4" xr:uid="{FBB5C58D-B247-41B5-8799-1A124E6C646B}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR4" xr:uid="{91DFD29B-A104-49D8-B1EC-BD9EB7E9E6C3}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS4" xr:uid="{9682040D-4D50-49BA-A646-4104A96FE8AD}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV4" xr:uid="{5CCAE1EE-76E8-4C18-B50A-1683E4274E2F}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{94F571BA-BA83-4E9F-A925-1A342A80EF78}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{A08121A5-05DD-46C0-9190-67DE7A41AF62}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{3711F718-5032-4FB8-866D-BE54E644C19A}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{37E38820-C4CA-43E6-BC90-6D70A12CFEF1}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{84BA15F5-9059-404B-8D0D-1A59B9A5264D}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{C046C8FC-E821-4063-A727-3D45B2396620}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E0FC1-DC21-494B-9F9D-C590D71C14A9}">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY3">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{CA4DB21B-A9A8-4882-99A9-D6222127CDAE}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR3" xr:uid="{FDA76F54-0685-4D96-B067-5A7CC66E88CF}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO3" xr:uid="{9BD233FC-1B87-4712-B061-DDE73CC41EA2}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{42668EBB-4918-4D47-9D29-3BA264D5AF9B}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3 AA2:AB3 AP2:AP3 AL2:AL3 AI2:AI3" xr:uid="{FE00103D-725F-43D3-83B5-9FEBE71B8E67}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 T2:T3" xr:uid="{5FE48178-3B3B-4051-823D-B17EA016ED8B}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3 V2:V3" xr:uid="{3F8E9668-D807-4983-897E-F99C39DFB567}">
+      <formula1>"Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3 Y2:Y3" xr:uid="{F14CA4FB-18B6-4B67-9B67-18DE47AC3FCE}">
+      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3 S2:S3" xr:uid="{3FA8A901-26BD-4E20-AB1F-387113D6DA8B}">
+      <formula1>"Guest,Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{F5564902-7BF3-457B-82BB-BA5871263DCA}">
+      <formula1>"Employee,Guest,MultiPassenger"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 AD2:AD3" xr:uid="{117FA201-6391-4F14-A17E-5CE721C522E1}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 AC2:AC3" xr:uid="{6E050D68-5BF0-49A5-8262-6682CE07BD7F}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{B179B715-29F9-4B29-A181-98A8D2CB9033}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{98578A6C-CCA0-4C04-9E5D-C852795D2F21}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV3" xr:uid="{DD58E7E6-57F4-4148-B43D-4E7A145941A9}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5DDDBA7C-CAE5-4718-812C-08040D4EA709}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{8990886C-2C5B-45D2-BB05-13783CFE387B}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{35B81D6F-BFE7-4282-B9D9-4EF863449C26}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{E3FDA450-C5D7-4866-8940-829B0CADD54F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C76D89-E4F5-452C-A4AD-4BFC79FAEDE9}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
@@ -2496,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB542E1-4BBB-4841-B599-41E8537CFD66}">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\Saudia\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balkrishna.Sharma\Desktop\saudiaproject\Saudia\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE47E76-86C0-4720-AD42-BA97DC28525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10EEBB4-5B7B-4046-8FAA-09852EEFB27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="104">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>340000000001098</t>
+  </si>
+  <si>
+    <t>Test on Flight 2</t>
+  </si>
+  <si>
+    <t>Verify RoundTrip(Individual) flight booking flow</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3088,13 +3094,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E0FC1-DC21-494B-9F9D-C590D71C14A9}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -3392,7 +3446,7 @@
         <v>85</v>
       </c>
       <c r="AU2" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>96</v>
@@ -3409,10 +3463,10 @@
     </row>
     <row r="3" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -3547,7 +3601,7 @@
         <v>85</v>
       </c>
       <c r="AU3" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>96</v>
@@ -3613,8 +3667,8 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{5DDDBA7C-CAE5-4718-812C-08040D4EA709}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{8990886C-2C5B-45D2-BB05-13783CFE387B}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{35B81D6F-BFE7-4282-B9D9-4EF863449C26}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{E3FDA450-C5D7-4866-8940-829B0CADD54F}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{07D929FE-7A8F-4ECA-ACE7-702B1F2F95D8}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{37886584-3F8C-4BD9-86EF-CED61EBE8E30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\Saudia\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE47E76-86C0-4720-AD42-BA97DC28525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A224DF-A50E-4B4A-BDC9-91E8312E8431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="UAT" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="120">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>anant.kumar@quadlabs.com</t>
-  </si>
-  <si>
-    <t>Anant@12345</t>
   </si>
   <si>
     <t>TripType</t>
@@ -126,12 +123,6 @@
 Chhatrapati S Maharaj</t>
   </si>
   <si>
-    <t>19-Oct-2024</t>
-  </si>
-  <si>
-    <t>21-Oct-2024</t>
-  </si>
-  <si>
     <t>jed</t>
   </si>
   <si>
@@ -152,24 +143,15 @@
     <t>Guest</t>
   </si>
   <si>
-    <t>MultiPassenger</t>
-  </si>
-  <si>
     <t>21-Nov-2024</t>
   </si>
   <si>
-    <t>19-Nov-2024</t>
-  </si>
-  <si>
     <t>RoundTrip</t>
   </si>
   <si>
     <t>11-Nov-2024</t>
   </si>
   <si>
-    <t>28-Nov-2024</t>
-  </si>
-  <si>
     <t>FareType</t>
   </si>
   <si>
@@ -206,18 +188,6 @@
     <t>Qlindia@123</t>
   </si>
   <si>
-    <t>ankur.yadav@quadlabs.com</t>
-  </si>
-  <si>
-    <t>Ankur@123</t>
-  </si>
-  <si>
-    <t>13-Jan-2025</t>
-  </si>
-  <si>
-    <t>15-Jan-2025</t>
-  </si>
-  <si>
     <t>Anant Kumar</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
     <t>20-February-2025</t>
   </si>
   <si>
-    <t>18-February-2025</t>
-  </si>
-  <si>
     <t>Seat</t>
   </si>
   <si>
@@ -342,13 +309,100 @@
   </si>
   <si>
     <t>340000000001098</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Test on Flight 2</t>
+  </si>
+  <si>
+    <t>37 B</t>
+  </si>
+  <si>
+    <t>SeatD</t>
+  </si>
+  <si>
+    <t>SeatR</t>
+  </si>
+  <si>
+    <t>35 B</t>
+  </si>
+  <si>
+    <t>40 A</t>
+  </si>
+  <si>
+    <t>25-February-2025</t>
+  </si>
+  <si>
+    <t>31 C</t>
+  </si>
+  <si>
+    <t>32 C</t>
+  </si>
+  <si>
+    <t>33 C</t>
+  </si>
+  <si>
+    <t>//dev.saudia.quadlabs.net/</t>
+  </si>
+  <si>
+    <t>akshay.kumar@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Qlindia@1234</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>22-April-2025</t>
+  </si>
+  <si>
+    <t>10-March-2025</t>
+  </si>
+  <si>
+    <t>Verify round trip(Individual) flight booking flow</t>
+  </si>
+  <si>
+    <t>Verify one way(Individual) flight booking flow</t>
+  </si>
+  <si>
+    <t>11-March-2025</t>
+  </si>
+  <si>
+    <t>MeetAndGreet,Baggage,Seat,FastTrack</t>
+  </si>
+  <si>
+    <t>TCategory</t>
+  </si>
+  <si>
+    <t>FamilyT</t>
+  </si>
+  <si>
+    <t>Aqty</t>
+  </si>
+  <si>
+    <t>Cqty</t>
+  </si>
+  <si>
+    <t>Iqty</t>
+  </si>
+  <si>
+    <t>ISQty</t>
+  </si>
+  <si>
+    <t>24-March-2025</t>
+  </si>
+  <si>
+    <t>Verify one way(Dependent) flight booking flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +446,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -465,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -493,8 +553,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,498 +836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{1A36A70F-5858-4982-955C-BC9A4D619D2C}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{DC7A9A0A-5063-4AB2-B8EF-4B2583BC8142}">
-      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{E7A5C067-E8B5-415C-8C74-294B4242318D}">
-      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{C8FE83B8-EEA7-4E16-80E1-BD7CC1EAE61B}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{934F60EF-1B3A-41EE-AB5B-53688E114C1B}">
-      <formula1>"Employee,Guest,MultiPassenger"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E4F8BB5E-4FE0-443D-81FA-0B281ABD8FD9}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{9B2F335F-8516-4222-9252-31BDCBA78825}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{13526578-FF5B-4E00-8F1C-F19F2171890A}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{C47B9258-D353-40FB-BD52-A328DEA115E7}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{6CC343BD-34CC-4C2C-9AB6-747CFA8E4DA4}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{64DDF8EF-36C1-4AC0-8102-4690B6FA7193}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9999AF92-46E8-4C1C-B799-9A834CEB6551}">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{17465D59-DBFC-4508-80A7-7D8A1AA0B5F5}">
-      <formula1>"Employee,Guest,MultiPassenger"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{62D35365-61D2-4068-AB58-6F12C1241621}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{3D2DABD7-56DA-4EC4-A142-E0F55C1EA53A}">
-      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{21F14436-FBAE-46EE-B0A8-ADE7B99B4BEF}">
-      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{A17AD3A6-A15F-46BA-B58D-AAE46F343CDD}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{13DA0A77-44B7-49D4-A337-CCF804E23C5D}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{8D714A12-6B09-4DEB-B0B5-F4EA5114D8AB}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{B4568361-0FFE-4DC3-B34F-14F508AD632E}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{DD24C6A3-9B66-4B4C-93EF-AEC22BF77AF0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A30DA-A021-42DE-9337-2DBEB8573B40}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,55 +892,55 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1392,58 +966,58 @@
         <v>14</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W2">
         <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1469,58 +1043,58 @@
         <v>14</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="O3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S3">
         <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W3">
         <v>3</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1546,58 +1120,58 @@
         <v>14</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="Q4" t="s">
         <v>4</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1623,58 +1197,58 @@
         <v>14</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="O5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1700,58 +1274,58 @@
         <v>14</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="Q6" t="s">
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1777,58 +1351,58 @@
         <v>14</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="O7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S7">
         <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1854,58 +1428,58 @@
         <v>14</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="Q8" t="s">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W8">
         <v>2</v>
       </c>
       <c r="X8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
@@ -1931,58 +1505,58 @@
         <v>14</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="O9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>37</v>
-      </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2037,320 +1611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840724F8-1455-4D2C-903F-38DA3EB24B1F}">
-  <dimension ref="A1:Y3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3 S2:S3" xr:uid="{0287DC23-030D-44C1-B7CC-8D5DBCDB9E00}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 U2:U3" xr:uid="{C03E6A49-8959-472D-84FB-E6E790D1C607}">
-      <formula1>"Basic,Semi Flex,Flex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 X2:X3" xr:uid="{6F86052F-6557-468F-81F9-82ED99F0DCC0}">
-      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3 R2:R3" xr:uid="{3E94CEE9-4236-4A36-B9C2-1E3D565C2E55}">
-      <formula1>"Guest,Business"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{AEE7F494-4083-4C72-9815-2A51116F56A0}">
-      <formula1>"Employee,Guest,MultiPassenger"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{AF5A0A07-84CD-4C03-B931-1D5D1DD36A05}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{C837B65C-876E-445D-ACBA-93959ACDC4B6}">
-      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{FEED6C9B-0F1E-4265-B3ED-7C5FBF75C44E}">
-      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{11219900-BA06-4793-97BF-FF747C390384}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{67177FE9-4594-40EE-BAED-956973D44285}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{EE2A114F-24D9-49BC-AD27-A5A96F5E41BA}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{EC25AD69-9A75-43F0-81E7-4ACEEB06D18A}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{621E2610-5067-49B8-B3C0-41CF28388A20}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E3D3A-B9B9-460F-B5D9-9CA28F0C8462}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,133 +1696,133 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AU1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AT1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="AX1" s="13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
@@ -2564,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -2573,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -2582,97 +1848,97 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="O2" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T2" s="5">
         <v>5</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X2" s="5">
         <v>2</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM2" s="5">
         <v>1</v>
@@ -2684,31 +1950,31 @@
         <v>1</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AS2" s="5">
         <v>1</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AU2" s="5">
         <v>15</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AW2" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AY2">
         <v>1234</v>
@@ -2719,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -2728,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
@@ -2737,97 +2003,97 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="O3" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T3" s="5">
         <v>5</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X3" s="5">
         <v>2</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM3" s="5">
         <v>1</v>
@@ -2839,31 +2105,31 @@
         <v>1</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AS3" s="5">
         <v>1</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AU3" s="5">
         <v>16</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AW3" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AY3">
         <v>1234</v>
@@ -2874,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -2883,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -2892,97 +2158,97 @@
         <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="O4" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T4" s="5">
         <v>5</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X4" s="5">
         <v>2</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
@@ -2994,31 +2260,31 @@
         <v>1</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AS4" s="5">
         <v>1</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AU4" s="5">
         <v>3</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AW4" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AX4" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AY4">
         <v>1234</v>
@@ -3084,25 +2350,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E0FC1-DC21-494B-9F9D-C590D71C14A9}">
-  <dimension ref="A1:AY3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3A645-0042-4383-B12A-FCF59620DCAD}">
+  <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" customWidth="1"/>
+    <col min="50" max="50" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3123,118 +2438,118 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AR1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="AU1" s="9" t="s">
         <v>94</v>
@@ -3243,21 +2558,24 @@
         <v>95</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -3266,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -3275,97 +2593,97 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="O2" s="11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T2" s="5">
         <v>5</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X2" s="5">
         <v>2</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM2" s="5">
         <v>1</v>
@@ -3377,42 +2695,45 @@
         <v>1</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AS2" s="5">
         <v>1</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AW2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY2">
+      <c r="AW2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -3421,7 +2742,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
@@ -3430,97 +2751,97 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="O3" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T3" s="5">
         <v>5</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X3" s="5">
         <v>2</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM3" s="5">
         <v>1</v>
@@ -3532,110 +2853,166 @@
         <v>1</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AS3" s="5">
         <v>1</v>
       </c>
       <c r="AT3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AU3" s="5">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW3" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY3">
+      <c r="AX3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ3">
         <v>1234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{CA4DB21B-A9A8-4882-99A9-D6222127CDAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW3" xr:uid="{8991F2A9-3DA1-4332-B448-08F538009D2A}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{06D69FF0-9823-4D21-BE6E-AE9278792A33}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{293485AA-8AE8-49A1-8854-695C94F3235C}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 I2:I3" xr:uid="{D86634F0-2734-464D-B9FC-B3EC2D5EB9A7}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3 J2:J3" xr:uid="{0D7663F0-BB86-4BCD-9C38-066D06B1EDA6}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{2F8D75DC-0F39-4EED-BFF8-0C726C8385C5}">
+      <formula1>"Employee,Guest,MultiPassenger"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3 W2:W3" xr:uid="{B6F25006-CDF7-4EA8-AC48-3907F7B3A1B8}">
+      <formula1>"Guest,Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 U2:U3" xr:uid="{A7E3D2D7-CA0D-4923-A219-6459EC3BB674}">
+      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3 Z2:Z3" xr:uid="{2C70AD18-51E8-4983-BE64-BA8D78D74B6A}">
+      <formula1>"Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 X2:X3" xr:uid="{DA5C02A4-6D54-4402-AEB7-9BA183DAF44E}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AB3 AP2:AP3 AL2:AL3 AI2:AI3 R2:R3" xr:uid="{8DF74C11-6ADA-473A-8EF5-9CD0C3569248}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{5B59741F-B489-4BA4-AE44-1906FC237C8F}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO3" xr:uid="{54E4572C-79B4-4E43-B70E-55A62F7D32E0}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR3" xr:uid="{119DAF8B-9B09-414F-933F-08E485203CB9}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{87A60911-4F09-4324-9879-0EF2A4098145}">
       <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR3" xr:uid="{FDA76F54-0685-4D96-B067-5A7CC66E88CF}">
-      <formula1>"SelectExtras,SkipToPayment"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO3" xr:uid="{9BD233FC-1B87-4712-B061-DDE73CC41EA2}">
-      <formula1>"0,1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{42668EBB-4918-4D47-9D29-3BA264D5AF9B}">
-      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3 AA2:AB3 AP2:AP3 AL2:AL3 AI2:AI3" xr:uid="{FE00103D-725F-43D3-83B5-9FEBE71B8E67}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 T2:T3" xr:uid="{5FE48178-3B3B-4051-823D-B17EA016ED8B}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3 V2:V3" xr:uid="{3F8E9668-D807-4983-897E-F99C39DFB567}">
-      <formula1>"Basic,Semi Flex,Flex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3 Y2:Y3" xr:uid="{F14CA4FB-18B6-4B67-9B67-18DE47AC3FCE}">
-      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3 S2:S3" xr:uid="{3FA8A901-26BD-4E20-AB1F-387113D6DA8B}">
-      <formula1>"Guest,Business"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{F5564902-7BF3-457B-82BB-BA5871263DCA}">
-      <formula1>"Employee,Guest,MultiPassenger"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 AD2:AD3" xr:uid="{117FA201-6391-4F14-A17E-5CE721C522E1}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 AC2:AC3" xr:uid="{6E050D68-5BF0-49A5-8262-6682CE07BD7F}">
-      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{B179B715-29F9-4B29-A181-98A8D2CB9033}">
-      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{98578A6C-CCA0-4C04-9E5D-C852795D2F21}">
-      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV3" xr:uid="{DD58E7E6-57F4-4148-B43D-4E7A145941A9}">
-      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5DDDBA7C-CAE5-4718-812C-08040D4EA709}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{8990886C-2C5B-45D2-BB05-13783CFE387B}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{35B81D6F-BFE7-4282-B9D9-4EF863449C26}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{E3FDA450-C5D7-4866-8940-829B0CADD54F}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{1D1E6792-2085-4DA8-AE9B-5CF26B5305D8}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{A85A1079-DE07-4E5F-88E0-76D993401541}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{5C5B8516-7773-4414-BA2B-49408D9C374A}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{F2D7DA85-81AE-47F1-9A88-01D40EC88949}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C76D89-E4F5-452C-A4AD-4BFC79FAEDE9}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3656,246 +3033,1916 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 X2" xr:uid="{D273C5E0-8368-41DC-B739-097EF48FDA4D}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 Z2" xr:uid="{A65956B2-5754-4E98-9B9B-CB455DA14047}">
+      <formula1>"Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 U2" xr:uid="{2ED9C7E1-7B3C-40C9-BFF0-1D59DE3870BE}">
+      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2 W2" xr:uid="{70DEF81A-A1E1-4EF0-B210-C22D5D5DF52B}">
+      <formula1>"Guest,Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{33B69218-C695-4B54-A48C-DDA82DEA815B}">
+      <formula1>"Employee,Guest,MultiPassenger"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 J2" xr:uid="{0799D15F-A34A-4723-82CA-9ED4A41C5E68}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 I2" xr:uid="{8D5753FE-E369-4961-A62D-F063F32470D8}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{C9747E2A-8BBF-468A-96E3-390ADA8153FE}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{22C2331D-84F8-40E1-A809-FBC9ACA4D4DF}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{47230CF0-CE7B-4CB1-A487-C831DD68B269}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO2" xr:uid="{5AAE08BE-831E-4476-9BE4-E9EE6655F3CF}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{2202A67C-958B-4FBC-B414-CBF473F08592}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AB2 AP2 AL2 AI2 R2" xr:uid="{EDFA8E76-5ED2-4434-9309-FF0BAA8FF7D2}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{2A4D3064-E282-4E4C-A15B-F71927682BD3}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{4FA8216E-9287-43F8-95AE-B177C7627849}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{AAE07EC6-8152-49CF-AC8E-9AC11C3CBEFA}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{4269F5AD-C718-43B1-9CF4-272B9B2C0897}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4742DD-8D64-4B0D-AFEF-B98ADB585F55}">
+  <dimension ref="A1:BA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="13" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="X1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="AA1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>53</v>
+      <c r="AB1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA3">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{BABDC362-5B32-480E-B805-34D6B458E314}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR3" xr:uid="{C1E45B61-7364-4FC9-9B62-AE0D2ABA1FC8}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO3" xr:uid="{97682ED7-75FD-44AA-A0D7-2983A1D961A1}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{2E40F47B-671F-4012-8B88-36B5E912BE6B}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AB3 AP2:AP3 AL2:AL3 AI2:AI3 R2:R3" xr:uid="{0CD3DEA8-C0B2-4355-BC90-AFCBE3C84DC3}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 X2:X3" xr:uid="{9EFEAB5F-5AB1-46B2-A1FF-9B3E3C2BD9B4}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3 Z2:Z3" xr:uid="{6983DCF8-80F2-46C8-8A9C-8782DEB88439}">
+      <formula1>"Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 U2:U3" xr:uid="{5BFBBAAC-71E4-47FA-A7C8-2E3ACB271FBF}">
+      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3 W2:W3" xr:uid="{CFC1E2C1-E049-4239-834F-39251C87840E}">
+      <formula1>"Guest,Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{22DBB904-0870-4681-BA09-2DFAEAB13448}">
+      <formula1>"Employee,Guest,MultiPassenger"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3 J2:J3" xr:uid="{FFB44811-F678-4359-8203-E5CF1DB70EE0}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 I2:I3" xr:uid="{5E780FA4-5183-4A34-A14B-B953C21DF440}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{0FD5D759-34DC-47D3-B8DB-C5DA1C3F3F08}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{121927C6-89B2-4E0C-A9F1-1C5CF6731ED7}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX3" xr:uid="{E331C36F-0A1C-4DBF-ACC9-65566A488C6B}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW3" xr:uid="{FDF0C7FD-978A-49D0-B3DF-F1573CD211E0}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DABC0-E5E1-486C-B0E4-ECA9269CD871}">
+  <dimension ref="A1:BF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF2">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{ADCBDE41-4393-41BD-80CC-9E1D042D15D5}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2" xr:uid="{29BF5FF4-6162-45F7-98F1-89B6883840B8}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{6B94AFED-384A-4194-9BA3-2A17C768E7E7}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{EE7E1567-EF88-40F3-9405-ECD5EEC34D13}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2 I2" xr:uid="{45FE7830-0A38-4BFA-850C-27ED9AEC8901}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2 J2" xr:uid="{A85DB5E1-A9E3-4447-909E-DF2F07680740}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{34DC906C-91D7-4FA1-B21C-84E3867758F2}">
+      <formula1>"Employee,Guest,MultiPassenger"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AB2" xr:uid="{84F4208B-99F5-4144-AACB-A40DD2FD649E}">
+      <formula1>"Guest,Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 Z2" xr:uid="{22CE95A0-06C8-4165-A983-5DC9B830D918}">
+      <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2" xr:uid="{28BCA44C-6380-4557-A5D3-48B7125820C0}">
+      <formula1>"Basic,Semi Flex,Flex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 AC2" xr:uid="{4154B67E-6035-447C-A167-520AD5CF3CDC}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AG2 AU2 AQ2 AN2 W2" xr:uid="{34B14E9F-6BB2-42EE-AF4D-9BEE007307B2}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{320D91A6-31ED-48DB-AAB1-B60748A35C4B}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AT2" xr:uid="{9C60EF7A-4B43-499C-B802-40FE6C6EF111}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{6BCE6FF0-2E8B-4607-82F7-972E9D989523}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{6186EBA2-615C-4AA2-9541-4FD0AD7F4B1F}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{17CACE01-C4D1-4582-967E-ED2725A8A2D0}">
+      <formula1>"BusinessT,FamilyT,PersonalT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V2" xr:uid="{8415B70E-73A6-460E-8BB1-F70AE2DC52B8}">
+      <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D675C2D-447C-4153-9E0D-D7DC345A092F}">
+  <dimension ref="A1:BF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="O2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="11" t="s">
+      <c r="Y2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2">
+      <c r="AB2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" s="5">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3">
+      <c r="AY2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB2" s="5">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>45</v>
+      <c r="BC2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF2">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3 S2:S3" xr:uid="{597C6905-B1A1-47D6-8EC0-F72AFB934C7F}">
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V2" xr:uid="{D50AEC35-60EB-4899-8EFF-6BB28E2F0136}">
+      <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{F1D68F24-68E3-46E0-95D6-FD291B1D9974}">
+      <formula1>"BusinessT,FamilyT,PersonalT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{6879C2B6-FE44-46BD-87C6-3193A5C0927C}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{1C4EA1B5-EC6D-4328-B269-353A7E0B51EF}">
+      <formula1>"SelectExtras,SkipToPayment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AT2" xr:uid="{8BD3000A-4DC2-4609-B4EC-59D8035FAA3A}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{3E7253C1-EBD8-4117-B067-1D956B0DFFB6}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AG2 AU2 AQ2 AN2 W2" xr:uid="{C91F62BF-3FF1-4C60-AE3F-782F3DDA496F}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 AC2" xr:uid="{BD68765E-B197-4858-88C6-701172CBB856}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 U2:U3" xr:uid="{7C7E7324-6788-4F26-968E-47A73A86CDD3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2" xr:uid="{E5FD930A-57AD-4C64-943D-98D35E8EEEA9}">
       <formula1>"Basic,Semi Flex,Flex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 X2:X3" xr:uid="{3863A3E6-5553-4E7E-AFB8-DBD3393E467C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 Z2" xr:uid="{B6003633-FF9A-4F69-B349-0B1AD82F821C}">
       <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3 R2:R3" xr:uid="{1920A182-5C0C-4867-BB33-12C98E74BBA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AB2" xr:uid="{8DDEDB74-2670-4CA6-91DB-7753F82E3A4F}">
       <formula1>"Guest,Business"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{84E8A402-0830-44DD-A2B2-516FA4F7CF8F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{1E28BFD0-77A5-4576-A6F0-0C25EB3211EC}">
       <formula1>"Employee,Guest,MultiPassenger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{D756066A-3062-4D93-A70A-04CBB31324DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2 J2" xr:uid="{1BBE1C26-0B46-4DB7-A902-E61D974CEF9E}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{1DEEF87D-6B0B-4604-969B-CC0F198F9B3E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2 I2" xr:uid="{2E42A08C-D9EE-41E3-8DBA-C6B3B956C2D7}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{CB665B9B-C7F4-4960-9713-FB041D1B1910}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{1B71492C-97B2-461D-8D05-30D1ACF257D6}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{33AFE60F-018D-4CCA-B2D7-2A6CA492018D}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{EC896A8E-4AA4-43B9-9F47-C915CA471E53}">
+      <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2" xr:uid="{5BB7FF80-7520-454E-BA53-05FC5222B0D2}">
+      <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{9B0E435A-EAB4-433D-9C14-80DBD8CFA08E}">
+      <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{3D433207-3EBF-483E-BC6F-2DE36DCD3F36}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00E56667-CEFF-46BA-9DFC-AD7FAB25B419}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{76C70035-7F9E-4215-A1B2-C939D7EA269A}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{9B9DDDEA-A0EA-4CA0-BF9E-B61D7BA05AF6}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7772E770-C9A9-4FF4-B221-CDB7A044FCE5}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{871C8395-B1C0-42B1-BEA0-2B45F5D84129}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3919,44 +4966,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\Saudia\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A224DF-A50E-4B4A-BDC9-91E8312E8431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE1141-4513-477A-ABFB-36C6FD5EF7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="124">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -392,10 +392,22 @@
     <t>ISQty</t>
   </si>
   <si>
-    <t>24-March-2025</t>
-  </si>
-  <si>
     <t>Verify one way(Dependent) flight booking flow</t>
+  </si>
+  <si>
+    <t>32 B,32 A,34 A,34 B,34 E,34 F</t>
+  </si>
+  <si>
+    <t>Baggage,Seat,MeetAndGreet,FastTrack</t>
+  </si>
+  <si>
+    <t>28-March-2025</t>
+  </si>
+  <si>
+    <t>Verify round trip(Dependent) flight booking flow</t>
+  </si>
+  <si>
+    <t>15-April-2025</t>
   </si>
 </sst>
 </file>
@@ -3983,23 +3995,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DABC0-E5E1-486C-B0E4-ECA9269CD871}">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -4041,8 +4053,8 @@
     <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
@@ -4231,7 +4243,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -4270,7 +4282,7 @@
         <v>32</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>106</v>
@@ -4378,13 +4390,13 @@
         <v>3</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="BB2" s="5">
         <v>1</v>
@@ -4399,63 +4411,239 @@
         <v>88</v>
       </c>
       <c r="BF2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="5">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF3">
         <v>1234</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{ADCBDE41-4393-41BD-80CC-9E1D042D15D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB3" xr:uid="{ADCBDE41-4393-41BD-80CC-9E1D042D15D5}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2" xr:uid="{29BF5FF4-6162-45F7-98F1-89B6883840B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC3" xr:uid="{29BF5FF4-6162-45F7-98F1-89B6883840B8}">
       <formula1>"SavedCards,UseDifferentCard,SADAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{6B94AFED-384A-4194-9BA3-2A17C768E7E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{6B94AFED-384A-4194-9BA3-2A17C768E7E7}">
       <formula1>"Anant Kumar,Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{EE7E1567-EF88-40F3-9405-ECD5EEC34D13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{EE7E1567-EF88-40F3-9405-ECD5EEC34D13}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2 I2" xr:uid="{45FE7830-0A38-4BFA-850C-27ED9AEC8901}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH3 I2:I3" xr:uid="{45FE7830-0A38-4BFA-850C-27ED9AEC8901}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2 J2" xr:uid="{A85DB5E1-A9E3-4447-909E-DF2F07680740}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3 J2:J3" xr:uid="{A85DB5E1-A9E3-4447-909E-DF2F07680740}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{34DC906C-91D7-4FA1-B21C-84E3867758F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{34DC906C-91D7-4FA1-B21C-84E3867758F2}">
       <formula1>"Employee,Guest,MultiPassenger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AB2" xr:uid="{84F4208B-99F5-4144-AACB-A40DD2FD649E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AB2:AB3" xr:uid="{84F4208B-99F5-4144-AACB-A40DD2FD649E}">
       <formula1>"Guest,Business"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 Z2" xr:uid="{22CE95A0-06C8-4165-A983-5DC9B830D918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3 Z2:Z3" xr:uid="{22CE95A0-06C8-4165-A983-5DC9B830D918}">
       <formula1>"Saver,Basic,Semi Flex,Flex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2" xr:uid="{28BCA44C-6380-4557-A5D3-48B7125820C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3 AE2:AE3" xr:uid="{28BCA44C-6380-4557-A5D3-48B7125820C0}">
       <formula1>"Basic,Semi Flex,Flex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 AC2" xr:uid="{4154B67E-6035-447C-A167-520AD5CF3CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 AC2:AC3" xr:uid="{4154B67E-6035-447C-A167-520AD5CF3CDC}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AG2 AU2 AQ2 AN2 W2" xr:uid="{34B14E9F-6BB2-42EE-AF4D-9BEE007307B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AG3 AU2:AU3 AQ2:AQ3 AN2:AN3 W2:W3" xr:uid="{34B14E9F-6BB2-42EE-AF4D-9BEE007307B2}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{320D91A6-31ED-48DB-AAB1-B60748A35C4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV3" xr:uid="{320D91A6-31ED-48DB-AAB1-B60748A35C4B}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AT2" xr:uid="{9C60EF7A-4B43-499C-B802-40FE6C6EF111}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AT3" xr:uid="{9C60EF7A-4B43-499C-B802-40FE6C6EF111}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{6BCE6FF0-2E8B-4607-82F7-972E9D989523}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW3" xr:uid="{6BCE6FF0-2E8B-4607-82F7-972E9D989523}">
       <formula1>"SelectExtras,SkipToPayment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{6186EBA2-615C-4AA2-9541-4FD0AD7F4B1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX3" xr:uid="{6186EBA2-615C-4AA2-9541-4FD0AD7F4B1F}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{17CACE01-C4D1-4582-967E-ED2725A8A2D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{17CACE01-C4D1-4582-967E-ED2725A8A2D0}">
       <formula1>"BusinessT,FamilyT,PersonalT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V2" xr:uid="{8415B70E-73A6-460E-8BB1-F70AE2DC52B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:V3" xr:uid="{8415B70E-73A6-460E-8BB1-F70AE2DC52B8}">
       <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
